--- a/data/long_dif/P31-Estudios-long_dif.xlsx
+++ b/data/long_dif/P31-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>42,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>32,15%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28,59%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37,03%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34,14%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29,62%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,48; 63,15</t>
+          <t>31,07; 59,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,33; 48,75</t>
+          <t>28,92; 48,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,54; 39,62</t>
+          <t>18,31; 40,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,02; 36,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,08; 48,13</t>
+          <t>24,19; 41,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,13; 38,85</t>
+          <t>26,68; 38,75</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21,65; 37,79</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30,31; 46,55</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29,46; 40,91</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22,53; 35,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,63%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>42,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>34,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,0; 42,83</t>
+          <t>27,04; 48,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,34; 40,38</t>
+          <t>24,95; 39,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,84; 48,68</t>
+          <t>14,82; 36,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,79; 45,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,02; 44,07</t>
+          <t>33,61; 51,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,02; 41,03</t>
+          <t>28,7; 41,21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20,04; 37,42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33,34; 48,43</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28,54; 38,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21,08; 34,25</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>43,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>33,35%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>43,52%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32,25%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>43,46%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 28,0</t>
+          <t>11,69; 27,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,4; 39,93</t>
+          <t>23,21; 38,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,66; 37,69</t>
+          <t>30,68; 64,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,0; 39,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 29,45</t>
+          <t>17,41; 32,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,45; 37,11</t>
+          <t>27,77; 39,82</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>34,11; 51,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16,59; 27,86</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>27,25; 36,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36,37; 53,82</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,92; 48,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,45; 40,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,8; 53,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,3; 38,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,36; 49,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,41; 38,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>34,83%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38,78%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>44,15%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35,96%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,56; 24,55</t>
+          <t>32,55; 45,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,3; 25,26</t>
+          <t>30,72; 41,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,77; 27,08</t>
+          <t>27,66; 39,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,22; 30,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,46; 23,83</t>
+          <t>43,82; 54,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,22; 26,67</t>
+          <t>30,9; 39,02</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32,89; 44,72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39,69; 48,56</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32,01; 38,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31,53; 40,53</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,2%</t>
+          <t>25,84%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19,11%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,32; 43,88</t>
+          <t>14,94; 24,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,06; 49,8</t>
+          <t>15,71; 24,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,58; 34,85</t>
+          <t>9,55; 17,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,55; 43,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,36; 38,13</t>
+          <t>17,08; 27,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,67; 45,48</t>
+          <t>22,15; 30,12</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 24,15</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 24,09</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>19,97; 25,74</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13,13; 19,17</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>44,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>39,32%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>42,1%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>35,49%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42,13%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>48,05%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>37,73; 50,42</t>
+          <t>35,45; 49,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,33; 44,32</t>
+          <t>39,13; 50,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,15; 55,16</t>
+          <t>47,22; 60,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33,69; 42,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,27; 50,73</t>
+          <t>24,43; 34,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,03; 42,35</t>
+          <t>35,07; 43,75</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>36,81; 48,3</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>31,24; 39,98</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>38,32; 45,68</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>43,48; 52,79</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,55; 23,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,72; 19,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,87; 19,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,99; 19,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,38; 18,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>44,18%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>38,91%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>40,1%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>47,11%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>38,78%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>37,85%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,42; 46,13</t>
+          <t>38,18; 51,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>40,01; 51,32</t>
+          <t>33,05; 44,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>29,58; 40,09</t>
+          <t>28,83; 42,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>41,2; 51,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>33,01; 41,36</t>
+          <t>44,3; 55,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>42,39; 49,46</t>
+          <t>34,07; 43,68</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>34,5; 45,56</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>42,79; 51,77</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>35,28; 42,74</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>33,64; 42,64</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>15,44%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>39,83; 48,28</t>
+          <t>10,92; 20,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>33,06; 40,46</t>
+          <t>11,59; 19,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>41,67; 48,42</t>
+          <t>6,49; 14,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>31,76; 37,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>41,7; 47,38</t>
+          <t>12,47; 21,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>33,1; 37,68</t>
+          <t>12,46; 19,56</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 15,32</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 19,13</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>12,95; 18,14</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 13,58</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>40,71%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>45,49%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>37,17%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>45,77%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>51,51%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>18,37; 25,16</t>
+          <t>34,07; 47,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>18,38; 24,21</t>
+          <t>40,09; 51,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21,15; 27,66</t>
+          <t>47,92; 61,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>22,94; 28,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>20,8; 25,37</t>
+          <t>27,76; 39,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>21,24; 25,32</t>
+          <t>40,52; 50,07</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>42,78; 54,09</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>32,91; 42,25</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>41,97; 49,33</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>46,83; 56,23</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>30,74; 39,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>38,89; 46,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>27,32; 33,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>36,82; 42,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,16; 35,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>39,03; 43,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>53,93%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>38,67%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>46,89%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>44,41; 63,06</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>31,38; 46,33</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>40,51; 53,08</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>20,2%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>23,88%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>13,68; 28,55</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 36,27</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>19,18; 29,51</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>25,87%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>33,14%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>29,22%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>19,22; 33,84</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>26,16; 40,27</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>23,95; 34,45</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>43,86%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>36,64%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>33,63%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>45,07%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>35,54%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>36,74%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>44,47%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>36,09%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>35,2%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>39,74; 48,34</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>32,88; 40,58</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 38,16</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>41,88; 48,37</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>32,79; 38,27</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>33,28; 40,53</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>41,93; 47,37</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>33,96; 38,63</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>32,3; 37,91</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>20,99%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>24,53%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>22,71%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>16,59%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>17,92; 24,04</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>18,34; 23,98</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 17,71</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 27,89</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>22,12; 27,28</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>15,95; 22,22</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>20,56; 24,99</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>21,03; 24,85</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>14,41; 18,89</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>35,36%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>42,36%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>51,88%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>30,29%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>39,94%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>44,62%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>32,82%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>41,14%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>48,21%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>31,51; 39,73</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>38,65; 45,96</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>46,96; 56,88</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>27,58; 33,04</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>36,97; 42,77</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>41,1; 48,31</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>30,38; 35,57</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>38,92; 43,45</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>45,24; 51,54</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P31-Estudios-long_dif.xlsx
+++ b/data/long_dif/P31-Estudios-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -770,7 +770,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -884,7 +884,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1116,7 +1116,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1230,7 +1230,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1462,7 +1462,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1576,7 +1576,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1808,7 +1808,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1922,7 +1922,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
